--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00404960-3FFD-401F-A186-358F15B7A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4949B14-1FD1-4DAC-89D7-DDB508060CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="14040" windowWidth="16410" windowHeight="14145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Other Tests</t>
   </si>
   <si>
-    <t>Pass Rate</t>
-  </si>
-  <si>
     <t>aquafun</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>% Pass</t>
+  </si>
+  <si>
+    <t>Average Pass Rate</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.4166666666666665</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,7 +624,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.4166666666666665</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1170,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3809523809523809</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1259,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.4761904761904763</c:v>
+                  <c:v>2.4285714285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1578,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pass Rate</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1631,7 +1631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pass Rate</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1684,7 +1684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pass Rate</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1737,7 +1737,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pass Rate</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2068,7 +2068,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Ranking</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2121,7 +2121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Ranking</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2174,7 +2174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Ranking</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2227,7 +2227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Ranking</c:v>
+                  <c:v>Average Pass Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5042,8 +5042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5258,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>3</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -5283,7 +5283,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <f>AVERAGE(B4:B15)</f>
@@ -5295,11 +5295,11 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D4:D15)</f>
-        <v>2.4166666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E4:E15)</f>
-        <v>2.4166666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -5331,7 +5331,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <f>AVERAGE(B21:B29, B4:B15)</f>
@@ -5496,11 +5496,11 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>2.3809523809523809</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>2.4761904761904763</v>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -5510,6 +5510,16 @@
       <c r="E32" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:E15 B21:E29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5519,13 +5529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E62FB-99A1-4A88-9128-20EC8B40431C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
@@ -5535,10 +5545,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -5558,7 +5568,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -5818,7 +5828,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B4:B15)</f>
@@ -5861,12 +5871,12 @@
         <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5887,7 +5897,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5908,7 +5918,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5929,7 +5939,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5950,7 +5960,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5971,7 +5981,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5992,7 +6002,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6013,7 +6023,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6034,7 +6044,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6055,7 +6065,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <f>AVERAGE(B21:B29, B4:B15)</f>
@@ -6075,6 +6085,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:E15 B21:E29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4949B14-1FD1-4DAC-89D7-DDB508060CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF329C7-E529-4C3D-A2FC-A10EA1B760FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -5043,7 +5043,7 @@
   <dimension ref="A3:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnorman/Projects/SegmentUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF329C7-E529-4C3D-A2FC-A10EA1B760FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF731C92-E65B-B74C-9368-573288FB910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ranking" sheetId="1" r:id="rId1"/>
-    <sheet name="Pass Fail" sheetId="2" r:id="rId2"/>
+    <sheet name="Full Tests" sheetId="3" r:id="rId1"/>
+    <sheet name="Full Test Pass Fail" sheetId="4" r:id="rId2"/>
+    <sheet name="Ranking" sheetId="1" r:id="rId3"/>
+    <sheet name="Pass Fail" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>adventure</t>
   </si>
@@ -134,12 +137,18 @@
   <si>
     <t>Average Pass Rate</t>
   </si>
+  <si>
+    <t>Fixed-Size Segment</t>
+  </si>
+  <si>
+    <t>Zero-Shot Baseline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,10 +191,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +216,1461 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Code</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Generation Method</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ranking</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero-Shot Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Ranking!$B$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Ranking!$B$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.9666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3F8-8A44-8824-2CB6C9980750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C3F8-8A44-8824-2CB6C9980750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed-Size Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C3F8-8A44-8824-2CB6C9980750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overlap Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.4166666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C3F8-8A44-8824-2CB6C9980750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1608685632"/>
+        <c:axId val="1608684192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1608685632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1608684192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1608684192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608685632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Code Generation Method</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Acceptable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Percentage </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero-Shot Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73F6-AC46-857E-0C917607330E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73F6-AC46-857E-0C917607330E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73F6-AC46-857E-0C917607330E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overlap Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73F6-AC46-857E-0C917607330E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1950186064"/>
+        <c:axId val="1950185104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1950186064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1950185104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1950185104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950186064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Passing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Percentage </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Test Pass Fail'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB2F-8C43-AB9C-BFB9BB8E90FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Test Pass Fail'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB2F-8C43-AB9C-BFB9BB8E90FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Test Pass Fail'!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB2F-8C43-AB9C-BFB9BB8E90FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overlap Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Test Pass Fail'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Pass Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Test Pass Fail'!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB2F-8C43-AB9C-BFB9BB8E90FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1950186064"/>
+        <c:axId val="1950185104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1950186064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950185104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1950185104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1950186064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -831,7 +2303,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1467,7 +2939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1957,7 +3429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2607,6 +4079,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4619,7 +6211,1640 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA81CD78-8D94-7648-8440-09440D4DA232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>822243</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179103</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119510</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246444BA-019F-5B4A-9E91-42844C36F520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>696685</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67356</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB96699-B326-2E41-91AD-068BB61D2964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4698,7 +7923,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4778,9 +8003,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4794,7 +8019,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -4806,7 +8031,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -4818,7 +8043,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4853,6 +8078,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4888,9 +8130,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5032,52 +8291,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB29B34-CF1B-D945-9D6F-06FCC2222DED}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5085,33 +8339,33 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5122,120 +8376,120 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5244,80 +8498,80 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1">
         <f>AVERAGE(B4:B15)</f>
-        <v>3.4166666666666665</v>
+        <v>2.9666666666666663</v>
       </c>
       <c r="C17" s="1">
         <f>AVERAGE(C4:C15)</f>
-        <v>1.9166666666666667</v>
+        <v>2.3666666666666663</v>
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D4:D15)</f>
-        <v>2.3333333333333335</v>
+        <v>2.25</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E4:E15)</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -5329,189 +8583,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1">
-        <f>AVERAGE(B21:B29, B4:B15)</f>
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" ref="C31:E31" si="0">AVERAGE(C21:C29, C4:C15)</f>
-        <v>1.9523809523809523</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4285714285714284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:E15 B21:E29">
+  <conditionalFormatting sqref="B4:E15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E21">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:E29">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5526,24 +8649,669 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A572666-75B1-6D49-A217-7955F9B210D2}">
+  <dimension ref="A3:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B8:E16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E32"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <f>AVERAGE(B4:B15)</f>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="C17" s="1">
+        <f>AVERAGE(C4:C15)</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(D4:D15)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E17" s="1">
+        <f>AVERAGE(E4:E15)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <f>AVERAGE(B21:B29, B4:B15)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C21:C29, C4:C15)</f>
+        <v>1.9523809523809523</v>
+      </c>
+      <c r="D31" s="1">
+        <f>AVERAGE(D21:D29, D4:D15)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E31" s="1">
+        <f>AVERAGE(E21:E29, E4:E15)</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:E15 B21:E29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E62FB-99A1-4A88-9128-20EC8B40431C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -5551,7 +9319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5571,7 +9339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5592,7 +9360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5613,7 +9381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5634,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5655,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5676,7 +9444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5697,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5718,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5739,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5760,7 +9528,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5781,7 +9549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5802,7 +9570,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5823,10 +9591,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5848,13 +9616,13 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5874,7 +9642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5895,7 +9663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5916,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5937,7 +9705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5958,7 +9726,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5979,7 +9747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6000,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6021,7 +9789,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6042,7 +9810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6063,7 +9831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -6072,15 +9840,15 @@
         <v>0.52380952380952384</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ref="C31:E31" si="2">AVERAGE(C21:C29, C4:C15)</f>
+        <f>AVERAGE(C21:C29, C4:C15)</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(D21:D29, D4:D15)</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E21:E29, E4:E15)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -6096,6 +9864,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnorman/Projects/SegmentUI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF731C92-E65B-B74C-9368-573288FB910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA14F9D-5C36-4113-8031-94BAD6ECE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="0" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Tests" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Pass Fail" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -846,7 +845,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.62</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +951,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,7 +1004,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8301,20 +8300,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB29B34-CF1B-D945-9D6F-06FCC2222DED}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8416,7 +8415,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8501,7 +8500,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8535,7 +8534,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8556,17 +8555,17 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -8583,30 +8582,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C21" s="2">
         <v>0.75</v>
       </c>
       <c r="D21" s="2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E21" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8656,21 +8655,21 @@
       <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -8705,48 +8704,48 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8754,38 +8753,38 @@
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G29" s="2"/>
     </row>
   </sheetData>
@@ -8813,21 +8812,21 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8878,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -9069,17 +9068,17 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9181,7 +9180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -9301,17 +9300,17 @@
       <selection sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -9319,7 +9318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9528,7 +9527,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -9591,10 +9590,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -9616,13 +9615,13 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9705,7 +9704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>

--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA14F9D-5C36-4113-8031-94BAD6ECE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85E7F1-FA7C-4AE7-A3AF-1FCF692CBA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="0" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Tests" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>adventure</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Zero-Shot Baseline</t>
+  </si>
+  <si>
+    <t>Std Error</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Ranking</a:t>
+              <a:t> Ranking </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>*Lower is Better*</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -333,19 +340,25 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Ranking!$B$18</c:f>
+                <c:f>'Full Tests'!$B$18</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.14818184719999999</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Ranking!$B$18</c:f>
+                <c:f>'Full Tests'!$B$18</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.14818184719999999</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -381,7 +394,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.9666666666666663</c:v>
+                  <c:v>3.0208333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,6 +429,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Full Tests'!$C$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.31276030830000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Full Tests'!$C$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.31276030830000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -434,7 +489,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3666666666666663</c:v>
+                  <c:v>2.3020833333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,6 +524,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Full Tests'!$D$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.26145625830000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Full Tests'!$D$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.26145625830000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -487,7 +584,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.25</c:v>
+                  <c:v>2.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,6 +619,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Full Tests'!$E$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.27916419320000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Full Tests'!$E$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.27916419320000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -540,7 +679,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.4166666666666665</c:v>
+                  <c:v>2.3645833333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,6 +691,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -757,11 +897,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Acceptable</a:t>
+              <a:t>Average Acceptability</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Percentage </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -845,7 +985,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +1038,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +1058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Set Segment</c:v>
+                  <c:v>Fixed-Size Segment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1004,7 +1144,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,6 +1320,474 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Code</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Generation Method</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ranking </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>*Lower is Better*</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero-Shot Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0208333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60B4-4FA8-92C5-65EFC6547070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3020833333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60B4-4FA8-92C5-65EFC6547070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed-Size Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60B4-4FA8-92C5-65EFC6547070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Tests'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overlap Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Tests'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Ranking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Tests'!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3645833333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-60B4-4FA8-92C5-65EFC6547070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1608685632"/>
+        <c:axId val="1608684192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1608685632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1608684192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1608684192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608685632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1669,7 +2277,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2302,7 +2910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2938,7 +3546,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3428,7 +4036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4198,6 +4806,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7719,20 +8367,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>24634</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>122237</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>637409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7761,14 +8912,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>822243</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3092</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>32563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>179103</xdr:colOff>
+      <xdr:colOff>641349</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>119510</xdr:rowOff>
     </xdr:to>
@@ -7792,6 +8943,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17517</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>630292</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7C01A0-B7A8-49A4-AA5E-B0BD6991C18B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8300,17 +9489,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB29B34-CF1B-D945-9D6F-06FCC2222DED}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -8338,10 +9527,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="D4">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8352,16 +9541,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3.4</v>
+        <v>3.375</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.625</v>
       </c>
       <c r="D5">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="E5">
-        <v>1.6</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -8369,16 +9558,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -8389,13 +9578,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="D7">
-        <v>2.2000000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="E7">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -8403,16 +9592,16 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2.4</v>
+        <v>2.125</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="E8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -8420,16 +9609,16 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>3.125</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>1.625</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -8437,16 +9626,16 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>3.375</v>
       </c>
       <c r="C10">
-        <v>2.4</v>
+        <v>2.125</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -8454,16 +9643,16 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>3.375</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>2.125</v>
       </c>
       <c r="D11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="E11">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -8471,16 +9660,16 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2.2000000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="C12">
-        <v>2.2000000000000002</v>
+        <v>1.75</v>
       </c>
       <c r="D12">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -8488,16 +9677,16 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -8505,16 +9694,16 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>3.375</v>
       </c>
       <c r="C14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="D14">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -8522,16 +9711,16 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -8540,26 +9729,37 @@
       </c>
       <c r="B17" s="1">
         <f>AVERAGE(B4:B15)</f>
-        <v>2.9666666666666663</v>
+        <v>3.0208333333333335</v>
       </c>
       <c r="C17" s="1">
         <f>AVERAGE(C4:C15)</f>
-        <v>2.3666666666666663</v>
+        <v>2.3020833333333335</v>
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D4:D15)</f>
-        <v>2.25</v>
+        <v>2.3125</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E4:E15)</f>
-        <v>2.4166666666666665</v>
+        <v>2.3645833333333335</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.14818184719999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.31276030830000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.26145625830000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.27916419320000002</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
@@ -8576,7 +9776,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -8587,16 +9787,16 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="C21" s="2">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="D21" s="2">
         <v>0.79</v>
       </c>
       <c r="E21" s="2">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -8643,7 +9843,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85E7F1-FA7C-4AE7-A3AF-1FCF692CBA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DD519-0921-49B2-AF9A-7DFD12FE6C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="14040" windowWidth="16410" windowHeight="14145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Tests" sheetId="3" r:id="rId1"/>
     <sheet name="Full Test Pass Fail" sheetId="4" r:id="rId2"/>
     <sheet name="Ranking" sheetId="1" r:id="rId3"/>
     <sheet name="Pass Fail" sheetId="2" r:id="rId4"/>
+    <sheet name="Latency" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>adventure</t>
   </si>
@@ -145,6 +146,21 @@
   <si>
     <t>Std Error</t>
   </si>
+  <si>
+    <t>LLM Segment Time</t>
+  </si>
+  <si>
+    <t>Code Gen Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Zero-shot Code Gen Time</t>
+  </si>
+  <si>
+    <t>Time Increase over Zero-shot</t>
+  </si>
 </sst>
 </file>
 
@@ -193,12 +209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9489,7 +9506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB29B34-CF1B-D945-9D6F-06FCC2222DED}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -11067,4 +11084,113 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CAC04A-32BE-4E8D-B040-C961AC1E9CE4}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6.23</v>
+      </c>
+      <c r="C2">
+        <v>254.55</v>
+      </c>
+      <c r="D2">
+        <f>C2+B2</f>
+        <v>260.78000000000003</v>
+      </c>
+      <c r="F2">
+        <v>58.58</v>
+      </c>
+      <c r="H2" s="5">
+        <f>((D2 - F2) / F2)</f>
+        <v>3.4516899965858663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7.26</v>
+      </c>
+      <c r="F3">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>6.44</v>
+      </c>
+      <c r="F4">
+        <v>42.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10.14</v>
+      </c>
+      <c r="F5">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>10.88</v>
+      </c>
+      <c r="F6">
+        <v>65.459999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DD519-0921-49B2-AF9A-7DFD12FE6C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F5BEB-0BB8-4C3E-8A23-14470DDB47E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16305" yWindow="14040" windowWidth="16410" windowHeight="14145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>adventure</t>
   </si>
@@ -161,6 +161,15 @@
   <si>
     <t>Time Increase over Zero-shot</t>
   </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Zero-Shot</t>
+  </si>
+  <si>
+    <t>Percent Increase</t>
+  </si>
 </sst>
 </file>
 
@@ -209,13 +218,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9506,17 +9516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB29B34-CF1B-D945-9D6F-06FCC2222DED}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -9815,6 +9825,11 @@
       <c r="E21" s="2">
         <v>0.75</v>
       </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
@@ -10514,8 +10529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E62FB-99A1-4A88-9128-20EC8B40431C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11088,18 +11103,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CAC04A-32BE-4E8D-B040-C961AC1E9CE4}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11151,10 +11166,21 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7.26</v>
+        <v>9.49</v>
+      </c>
+      <c r="C3">
+        <v>693.46</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3+B3</f>
+        <v>702.95</v>
       </c>
       <c r="F3">
         <v>47.06</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H6" si="1">((D3 - F3) / F3)</f>
+        <v>13.937314067148323</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -11162,10 +11188,21 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>6.44</v>
+        <v>8.36</v>
+      </c>
+      <c r="C4">
+        <v>223.22</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>231.57999999999998</v>
       </c>
       <c r="F4">
         <v>42.69</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.4246896228624966</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -11173,10 +11210,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.14</v>
+        <v>8.82</v>
+      </c>
+      <c r="C5">
+        <v>326.43</v>
+      </c>
+      <c r="D5">
+        <f>C5+B5</f>
+        <v>335.25</v>
       </c>
       <c r="F5">
         <v>48.08</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>5.9727537437603999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -11184,10 +11232,59 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>10.88</v>
+        <v>10.68</v>
+      </c>
+      <c r="C6">
+        <v>625.02</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>635.69999999999993</v>
       </c>
       <c r="F6">
         <v>65.459999999999994</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7112740604949579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>8.7159999999999993</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>424.53600000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <f>AVERAGE(F2:F6)</f>
+        <v>52.373999999999988</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(D2:D6)</f>
+        <v>433.25199999999995</v>
+      </c>
+      <c r="D10" s="6">
+        <f>((C10 - B10) / B10)</f>
+        <v>7.2722725016229441</v>
       </c>
     </row>
   </sheetData>

--- a/sample_tests.xlsx
+++ b/sample_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F5BEB-0BB8-4C3E-8A23-14470DDB47E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF942A8A-A2B3-43F9-B2E1-9E286ABA2E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="14040" windowWidth="16410" windowHeight="14145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Tests" sheetId="3" r:id="rId1"/>
@@ -218,13 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -718,7 +717,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -994,6 +992,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$21</c:f>
@@ -1047,6 +1103,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$21</c:f>
@@ -1100,6 +1214,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$21</c:f>
@@ -1153,6 +1325,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$21</c:f>
@@ -1183,8 +1413,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1463,6 +1694,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -1516,6 +1805,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -1569,6 +1916,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -1622,6 +2027,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Full Tests'!$A$17</c:f>
@@ -1652,8 +2115,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -9516,8 +9980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB29B34-CF1B-D945-9D6F-06FCC2222DED}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9827,9 +10291,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
@@ -11105,7 +11569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CAC04A-32BE-4E8D-B040-C961AC1E9CE4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -11156,7 +11620,7 @@
       <c r="F2">
         <v>58.58</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <f>((D2 - F2) / F2)</f>
         <v>3.4516899965858663</v>
       </c>
@@ -11178,7 +11642,7 @@
       <c r="F3">
         <v>47.06</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H6" si="1">((D3 - F3) / F3)</f>
         <v>13.937314067148323</v>
       </c>
@@ -11200,7 +11664,7 @@
       <c r="F4">
         <v>42.69</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>4.4246896228624966</v>
       </c>
@@ -11222,7 +11686,7 @@
       <c r="F5">
         <v>48.08</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>5.9727537437603999</v>
       </c>
@@ -11244,7 +11708,7 @@
       <c r="F6">
         <v>65.459999999999994</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>8.7112740604949579</v>
       </c>
@@ -11282,7 +11746,7 @@
         <f>AVERAGE(D2:D6)</f>
         <v>433.25199999999995</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>((C10 - B10) / B10)</f>
         <v>7.2722725016229441</v>
       </c>
